--- a/doc/cs1/task10/scrum_v02.xlsx
+++ b/doc/cs1/task10/scrum_v02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michi/Desktop/SoftwareEngineering/trunk/doc/cs1/task10/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>Der Arzt kann für eine Patienten massgeschneiderte Notfall-Massnahmen hinterlegen, welche beim Auslösen gestartet werden</t>
+  </si>
+  <si>
+    <t>Termin anzeigen</t>
+  </si>
+  <si>
+    <t>Der Patient logt sich am System ein und kann sich seine Arzttermine in einer Übersicht anzeigen lassen</t>
+  </si>
+  <si>
+    <t>Termin bearbeiten</t>
+  </si>
+  <si>
+    <t>Der Arzt logt sich am System ein, wählt einen seiner Patienten aus und kann bei diesem die eingetragenen Termine bearbeiten (Zeiten anpassen, Termein löschen, etc.)</t>
   </si>
 </sst>
 </file>
@@ -663,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -989,6 +1001,50 @@
         <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1060,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
